--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2801.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2801.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.168863194351243</v>
+        <v>0.9349475502967834</v>
       </c>
       <c r="B1">
-        <v>2.44080331285256</v>
+        <v>1.684190273284912</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.525660991668701</v>
       </c>
       <c r="D1">
-        <v>2.364524834997754</v>
+        <v>2.200752258300781</v>
       </c>
       <c r="E1">
-        <v>1.231724185409909</v>
+        <v>0.9746428728103638</v>
       </c>
     </row>
   </sheetData>
